--- a/format-import.xlsx
+++ b/format-import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tzuyu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\kelulusan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="502">
   <si>
     <t>A. AZIZAH RAHMADANI</t>
   </si>
@@ -1518,19 +1518,35 @@
   </si>
   <si>
     <t>Lulus</t>
+  </si>
+  <si>
+    <t>11 Januari 2002</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>siswa123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1576,27 +1592,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1904,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,13 +1935,13 @@
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="6"/>
     <col min="9" max="9" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>490</v>
       </c>
@@ -1950,8 +1969,11 @@
       <c r="I1" s="8" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1965,7 +1987,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>499</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
@@ -1979,8 +2001,11 @@
       <c r="I2" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2008,8 +2033,11 @@
       <c r="I3" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2037,8 +2065,11 @@
       <c r="I4" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -2066,8 +2097,11 @@
       <c r="I5" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -2095,8 +2129,11 @@
       <c r="I6" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2161,11 @@
       <c r="I7" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -2153,8 +2193,11 @@
       <c r="I8" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -2182,8 +2225,11 @@
       <c r="I9" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -2211,8 +2257,11 @@
       <c r="I10" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -2240,8 +2289,11 @@
       <c r="I11" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -2269,8 +2321,11 @@
       <c r="I12" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -2298,8 +2353,11 @@
       <c r="I13" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -2327,8 +2385,11 @@
       <c r="I14" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
@@ -2356,8 +2417,11 @@
       <c r="I15" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -2385,8 +2449,11 @@
       <c r="I16" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>79</v>
       </c>
@@ -2414,8 +2481,11 @@
       <c r="I17" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -2443,8 +2513,11 @@
       <c r="I18" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>90</v>
       </c>
@@ -2472,8 +2545,11 @@
       <c r="I19" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>94</v>
       </c>
@@ -2501,8 +2577,11 @@
       <c r="I20" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -2530,8 +2609,11 @@
       <c r="I21" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>104</v>
       </c>
@@ -2559,8 +2641,11 @@
       <c r="I22" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>109</v>
       </c>
@@ -2588,8 +2673,11 @@
       <c r="I23" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>114</v>
       </c>
@@ -2617,8 +2705,11 @@
       <c r="I24" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
@@ -2646,8 +2737,11 @@
       <c r="I25" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>124</v>
       </c>
@@ -2675,8 +2769,11 @@
       <c r="I26" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>129</v>
       </c>
@@ -2704,8 +2801,11 @@
       <c r="I27" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>134</v>
       </c>
@@ -2733,8 +2833,11 @@
       <c r="I28" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>140</v>
       </c>
@@ -2762,8 +2865,11 @@
       <c r="I29" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>145</v>
       </c>
@@ -2791,8 +2897,11 @@
       <c r="I30" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>150</v>
       </c>
@@ -2820,8 +2929,11 @@
       <c r="I31" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>153</v>
       </c>
@@ -2849,8 +2961,11 @@
       <c r="I32" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>157</v>
       </c>
@@ -2878,8 +2993,11 @@
       <c r="I33" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>162</v>
       </c>
@@ -2907,8 +3025,11 @@
       <c r="I34" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>166</v>
       </c>
@@ -2936,8 +3057,11 @@
       <c r="I35" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>171</v>
       </c>
@@ -2965,8 +3089,11 @@
       <c r="I36" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>175</v>
       </c>
@@ -2994,8 +3121,11 @@
       <c r="I37" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>180</v>
       </c>
@@ -3023,8 +3153,11 @@
       <c r="I38" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>185</v>
       </c>
@@ -3052,8 +3185,11 @@
       <c r="I39" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>190</v>
       </c>
@@ -3081,8 +3217,11 @@
       <c r="I40" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>194</v>
       </c>
@@ -3110,8 +3249,11 @@
       <c r="I41" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>198</v>
       </c>
@@ -3139,8 +3281,11 @@
       <c r="I42" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>202</v>
       </c>
@@ -3168,8 +3313,11 @@
       <c r="I43" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>206</v>
       </c>
@@ -3197,8 +3345,11 @@
       <c r="I44" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>210</v>
       </c>
@@ -3226,8 +3377,11 @@
       <c r="I45" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>213</v>
       </c>
@@ -3255,8 +3409,11 @@
       <c r="I46" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>218</v>
       </c>
@@ -3284,8 +3441,11 @@
       <c r="I47" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>222</v>
       </c>
@@ -3313,8 +3473,11 @@
       <c r="I48" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>227</v>
       </c>
@@ -3342,8 +3505,11 @@
       <c r="I49" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>233</v>
       </c>
@@ -3371,8 +3537,11 @@
       <c r="I50" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>237</v>
       </c>
@@ -3400,8 +3569,11 @@
       <c r="I51" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>241</v>
       </c>
@@ -3429,8 +3601,11 @@
       <c r="I52" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>246</v>
       </c>
@@ -3458,8 +3633,11 @@
       <c r="I53" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>251</v>
       </c>
@@ -3487,8 +3665,11 @@
       <c r="I54" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>256</v>
       </c>
@@ -3516,8 +3697,11 @@
       <c r="I55" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>260</v>
       </c>
@@ -3545,8 +3729,11 @@
       <c r="I56" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>265</v>
       </c>
@@ -3574,8 +3761,11 @@
       <c r="I57" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>269</v>
       </c>
@@ -3603,8 +3793,11 @@
       <c r="I58" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>274</v>
       </c>
@@ -3632,8 +3825,11 @@
       <c r="I59" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>278</v>
       </c>
@@ -3661,8 +3857,11 @@
       <c r="I60" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>282</v>
       </c>
@@ -3690,8 +3889,11 @@
       <c r="I61" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>285</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="I62" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>289</v>
       </c>
@@ -3748,8 +3953,11 @@
       <c r="I63" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>293</v>
       </c>
@@ -3777,8 +3985,11 @@
       <c r="I64" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>297</v>
       </c>
@@ -3806,8 +4017,11 @@
       <c r="I65" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>301</v>
       </c>
@@ -3835,8 +4049,11 @@
       <c r="I66" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>306</v>
       </c>
@@ -3864,8 +4081,11 @@
       <c r="I67" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>311</v>
       </c>
@@ -3893,8 +4113,11 @@
       <c r="I68" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>316</v>
       </c>
@@ -3922,8 +4145,11 @@
       <c r="I69" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>320</v>
       </c>
@@ -3951,8 +4177,11 @@
       <c r="I70" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>323</v>
       </c>
@@ -3980,8 +4209,11 @@
       <c r="I71" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>328</v>
       </c>
@@ -4009,8 +4241,11 @@
       <c r="I72" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>332</v>
       </c>
@@ -4038,8 +4273,11 @@
       <c r="I73" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>337</v>
       </c>
@@ -4067,8 +4305,11 @@
       <c r="I74" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>340</v>
       </c>
@@ -4096,8 +4337,11 @@
       <c r="I75" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>344</v>
       </c>
@@ -4125,8 +4369,11 @@
       <c r="I76" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>348</v>
       </c>
@@ -4154,8 +4401,11 @@
       <c r="I77" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>352</v>
       </c>
@@ -4183,8 +4433,11 @@
       <c r="I78" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>357</v>
       </c>
@@ -4212,8 +4465,11 @@
       <c r="I79" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>361</v>
       </c>
@@ -4241,8 +4497,11 @@
       <c r="I80" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>364</v>
       </c>
@@ -4270,8 +4529,11 @@
       <c r="I81" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>368</v>
       </c>
@@ -4299,8 +4561,11 @@
       <c r="I82" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>373</v>
       </c>
@@ -4328,8 +4593,11 @@
       <c r="I83" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>377</v>
       </c>
@@ -4357,8 +4625,11 @@
       <c r="I84" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>382</v>
       </c>
@@ -4386,8 +4657,11 @@
       <c r="I85" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>386</v>
       </c>
@@ -4415,8 +4689,11 @@
       <c r="I86" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>391</v>
       </c>
@@ -4444,8 +4721,11 @@
       <c r="I87" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>396</v>
       </c>
@@ -4473,8 +4753,11 @@
       <c r="I88" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>400</v>
       </c>
@@ -4502,8 +4785,11 @@
       <c r="I89" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>404</v>
       </c>
@@ -4531,8 +4817,11 @@
       <c r="I90" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>409</v>
       </c>
@@ -4560,8 +4849,11 @@
       <c r="I91" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>413</v>
       </c>
@@ -4589,8 +4881,11 @@
       <c r="I92" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>417</v>
       </c>
@@ -4618,8 +4913,11 @@
       <c r="I93" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>421</v>
       </c>
@@ -4647,8 +4945,11 @@
       <c r="I94" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>425</v>
       </c>
@@ -4676,8 +4977,11 @@
       <c r="I95" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>429</v>
       </c>
@@ -4705,8 +5009,11 @@
       <c r="I96" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>434</v>
       </c>
@@ -4734,8 +5041,11 @@
       <c r="I97" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>439</v>
       </c>
@@ -4763,8 +5073,11 @@
       <c r="I98" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>443</v>
       </c>
@@ -4792,8 +5105,11 @@
       <c r="I99" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>447</v>
       </c>
@@ -4821,8 +5137,11 @@
       <c r="I100" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>451</v>
       </c>
@@ -4850,8 +5169,11 @@
       <c r="I101" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>455</v>
       </c>
@@ -4879,8 +5201,11 @@
       <c r="I102" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>460</v>
       </c>
@@ -4908,8 +5233,11 @@
       <c r="I103" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>464</v>
       </c>
@@ -4937,8 +5265,11 @@
       <c r="I104" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>468</v>
       </c>
@@ -4966,8 +5297,11 @@
       <c r="I105" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>472</v>
       </c>
@@ -4995,8 +5329,11 @@
       <c r="I106" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>477</v>
       </c>
@@ -5024,8 +5361,11 @@
       <c r="I107" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>480</v>
       </c>
@@ -5053,8 +5393,11 @@
       <c r="I108" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>484</v>
       </c>
@@ -5081,6 +5424,9 @@
       </c>
       <c r="I109" s="10">
         <v>2021</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
